--- a/TnE/ERD_pizza_data.xlsx
+++ b/TnE/ERD_pizza_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l3-evening\Documents\workspace-spring-tool-suite-4-4.7.0.RELEASE\pizza_a\TnE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\workspace-spring-tool-suite-4-4.7.0.RELEASE\pizza_a\TnE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C6FF6F-C032-428E-B3AE-6275F791828B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B113C9-EE44-48BB-B507-C22068F5A046}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1B05C7C1-2AE3-406F-B0E4-99433EE4ADB2}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{1B05C7C1-2AE3-406F-B0E4-99433EE4ADB2}"/>
   </bookViews>
   <sheets>
     <sheet name="old" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="88">
   <si>
     <t>aaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +357,25 @@
   </si>
   <si>
     <t>case 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달성군 301</t>
+  </si>
+  <si>
+    <t>대구 달성1점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달여부는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문요청시간은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_deliver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1110,6 +1129,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1145,18 +1176,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1478,27 +1497,27 @@
       <selection activeCell="K5" sqref="K5:O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.58203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="9" t="s">
         <v>42</v>
       </c>
@@ -1511,20 +1530,20 @@
       <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="95" t="s">
+      <c r="K5" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="97"/>
-    </row>
-    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="92" t="s">
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
+    </row>
+    <row r="6" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="98"/>
       <c r="K6" s="31" t="s">
         <v>42</v>
       </c>
@@ -1541,7 +1560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
@@ -1563,7 +1582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="17" t="s">
         <v>38</v>
       </c>
@@ -1588,7 +1607,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -1601,7 +1620,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
@@ -1627,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" s="21" t="s">
         <v>21</v>
       </c>
@@ -1650,7 +1669,7 @@
         <v>44103.817256944443</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12" s="21" t="s">
         <v>22</v>
       </c>
@@ -1672,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="17" t="s">
         <v>23</v>
       </c>
@@ -1694,7 +1713,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -1704,7 +1723,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
@@ -1726,7 +1745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" s="27" t="s">
         <v>47</v>
       </c>
@@ -1752,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B17" s="21" t="s">
         <v>24</v>
       </c>
@@ -1773,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B18" s="21" t="s">
         <v>16</v>
       </c>
@@ -1795,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B19" s="21" t="s">
         <v>32</v>
       </c>
@@ -1817,7 +1836,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="19" t="s">
@@ -1835,13 +1854,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B22" s="13" t="s">
         <v>30</v>
       </c>
@@ -1849,7 +1868,7 @@
       <c r="D22" s="15"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B23" s="21"/>
       <c r="C23" s="22" t="s">
         <v>28</v>
@@ -1861,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
       <c r="D24" s="23" t="s">
@@ -1871,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
       <c r="D25" s="23" t="s">
@@ -1881,13 +1900,13 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
       <c r="D26" s="23"/>
       <c r="E26" s="25"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B27" s="21"/>
       <c r="C27" s="22" t="s">
         <v>28</v>
@@ -1899,7 +1918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
       <c r="D28" s="23" t="s">
@@ -1909,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23" t="s">
@@ -1919,13 +1938,13 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
       <c r="E30" s="25"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B31" s="21"/>
       <c r="C31" s="22" t="s">
         <v>28</v>
@@ -1937,7 +1956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
       <c r="D32" s="23" t="s">
@@ -1947,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
       <c r="D33" s="19" t="s">
@@ -1957,13 +1976,13 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" s="13" t="s">
         <v>34</v>
       </c>
@@ -1971,7 +1990,7 @@
       <c r="D35" s="15"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" s="21"/>
       <c r="C36" s="22" t="s">
         <v>8</v>
@@ -1979,7 +1998,7 @@
       <c r="D36" s="23"/>
       <c r="E36" s="25"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
       <c r="D37" s="23" t="s">
@@ -1989,7 +2008,7 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19" t="s">
@@ -1999,15 +2018,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="92" t="s">
+    <row r="39" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="94"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="98"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B40" s="13" t="s">
         <v>26</v>
       </c>
@@ -2015,7 +2034,7 @@
       <c r="D40" s="15"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="17" t="s">
         <v>40</v>
       </c>
@@ -2029,13 +2048,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="92"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="94"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="96"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="98"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B43" s="13" t="s">
         <v>41</v>
       </c>
@@ -2049,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="17" t="s">
         <v>39</v>
       </c>
@@ -2076,80 +2095,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8105EAB1-ED20-4585-9EB1-8ADC9FD59E63}">
-  <dimension ref="B2:AO44"/>
+  <dimension ref="B2:AO45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8:P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9" style="39"/>
-    <col min="9" max="9" width="5.625" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="5.58203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.58203125" style="39" customWidth="1"/>
     <col min="11" max="11" width="9" style="39"/>
     <col min="12" max="12" width="25" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="68" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="68" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="39" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.08203125" style="39" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2" style="39" customWidth="1"/>
     <col min="18" max="18" width="25" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.375" style="68" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" style="68" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" style="39" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="26.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.08203125" style="39" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="2" style="39" customWidth="1"/>
     <col min="24" max="24" width="25" style="39" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.375" style="68" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" style="68" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.08203125" style="39" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="2" style="39" customWidth="1"/>
-    <col min="30" max="30" width="15.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.08203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.08203125" style="39" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="2" style="39" customWidth="1"/>
     <col min="36" max="36" width="11" style="39" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.08203125" style="39" bestFit="1" customWidth="1"/>
     <col min="41" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:41" s="104" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="105"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="L2" s="104" t="s">
+    <row r="2" spans="2:41" s="92" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="L2" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="M2" s="107"/>
-      <c r="R2" s="104" t="s">
+      <c r="M2" s="95"/>
+      <c r="R2" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="107"/>
-      <c r="X2" s="104" t="s">
+      <c r="S2" s="95"/>
+      <c r="X2" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="Y2" s="107"/>
-    </row>
-    <row r="3" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="Y2" s="95"/>
+    </row>
+    <row r="3" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B3" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="40" t="s">
         <v>42</v>
       </c>
@@ -2162,52 +2181,52 @@
       <c r="E5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="98" t="s">
+      <c r="L5" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="100"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="104"/>
       <c r="P5" s="70"/>
       <c r="Q5" s="70"/>
-      <c r="R5" s="98" t="s">
+      <c r="R5" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="100"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="104"/>
       <c r="V5" s="70"/>
       <c r="W5" s="70"/>
-      <c r="X5" s="98" t="s">
+      <c r="X5" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="100"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="104"/>
       <c r="AB5" s="70"/>
       <c r="AC5" s="70"/>
-      <c r="AD5" s="98" t="s">
+      <c r="AD5" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="100"/>
-      <c r="AJ5" s="98" t="s">
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="104"/>
+      <c r="AJ5" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="AK5" s="99"/>
-      <c r="AL5" s="99"/>
-      <c r="AM5" s="100"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="104"/>
       <c r="AN5" s="70"/>
       <c r="AO5" s="70"/>
     </row>
-    <row r="6" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="101" t="s">
+    <row r="6" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="103"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="107"/>
       <c r="L6" s="71" t="s">
         <v>42</v>
       </c>
@@ -2288,7 +2307,7 @@
       </c>
       <c r="AO6" s="74"/>
     </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B7" s="44" t="s">
         <v>20</v>
       </c>
@@ -2335,7 +2354,7 @@
       </c>
       <c r="AJ7" s="68"/>
     </row>
-    <row r="8" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="48" t="s">
         <v>38</v>
       </c>
@@ -2390,7 +2409,7 @@
       <c r="AC8" s="69"/>
       <c r="AO8" s="69"/>
     </row>
-    <row r="9" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="52"/>
       <c r="C9" s="53"/>
       <c r="D9" s="54"/>
@@ -2408,7 +2427,7 @@
       <c r="Z9" s="54"/>
       <c r="AA9" s="55"/>
     </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B10" s="44" t="s">
         <v>45</v>
       </c>
@@ -2421,28 +2440,28 @@
       <c r="E10" s="47">
         <v>1</v>
       </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="45" t="s">
+      <c r="L10" s="79"/>
+      <c r="M10" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="46" t="s">
+      <c r="N10" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="47" t="s">
+      <c r="O10" s="82" t="s">
         <v>75</v>
       </c>
       <c r="P10" s="68" t="s">
         <v>52</v>
       </c>
       <c r="Q10" s="68"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="45" t="s">
+      <c r="R10" s="79"/>
+      <c r="S10" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="46" t="s">
+      <c r="T10" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="U10" s="47" t="s">
+      <c r="U10" s="82" t="s">
         <v>0</v>
       </c>
       <c r="V10" s="68" t="s">
@@ -2465,7 +2484,7 @@
       <c r="AC10" s="68"/>
       <c r="AO10" s="68"/>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B11" s="56" t="s">
         <v>21</v>
       </c>
@@ -2486,7 +2505,7 @@
         <v>54</v>
       </c>
       <c r="O11" s="61" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="R11" s="56" t="s">
         <v>55</v>
@@ -2510,7 +2529,7 @@
       </c>
       <c r="AJ11" s="68"/>
     </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B12" s="56" t="s">
         <v>22</v>
       </c>
@@ -2527,7 +2546,7 @@
         <v>56</v>
       </c>
       <c r="O12" s="61">
-        <v>45713</v>
+        <v>45231</v>
       </c>
       <c r="R12" s="56"/>
       <c r="S12" s="57"/>
@@ -2546,7 +2565,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="13" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="83"/>
       <c r="C13" s="84"/>
       <c r="D13" s="85"/>
@@ -2559,7 +2578,7 @@
         <v>68</v>
       </c>
       <c r="O13" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" s="69" t="s">
         <v>51</v>
@@ -2591,7 +2610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="48" t="s">
         <v>23</v>
       </c>
@@ -2615,37 +2634,37 @@
       <c r="Z14" s="54"/>
       <c r="AA14" s="55"/>
     </row>
-    <row r="15" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="52"/>
       <c r="C15" s="53"/>
       <c r="D15" s="54"/>
       <c r="E15" s="63"/>
-      <c r="L15" s="79" t="s">
+      <c r="L15" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="80" t="s">
+      <c r="M15" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="81" t="s">
+      <c r="N15" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="82">
+      <c r="O15" s="47">
         <v>2</v>
       </c>
       <c r="P15" s="68" t="s">
         <v>58</v>
       </c>
       <c r="Q15" s="68"/>
-      <c r="R15" s="79" t="s">
+      <c r="R15" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="S15" s="80" t="s">
+      <c r="S15" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="T15" s="81" t="s">
+      <c r="T15" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="U15" s="82">
+      <c r="U15" s="47">
         <v>1</v>
       </c>
       <c r="V15" s="68" t="s">
@@ -2685,7 +2704,7 @@
       </c>
       <c r="AO15" s="68"/>
     </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B16" s="44" t="s">
         <v>7</v>
       </c>
@@ -2737,7 +2756,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B17" s="67" t="s">
         <v>47</v>
       </c>
@@ -2751,937 +2770,981 @@
         <v>1</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="M17" s="57"/>
       <c r="N17" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="59">
-        <v>44103.817256944443</v>
+        <v>87</v>
+      </c>
+      <c r="O17" s="61">
+        <v>0</v>
       </c>
       <c r="R17" s="56" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="S17" s="57"/>
       <c r="T17" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="U17" s="59">
-        <v>44103.817256944443</v>
+        <v>87</v>
+      </c>
+      <c r="U17" s="61">
+        <v>1</v>
       </c>
       <c r="X17" s="56" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="Y17" s="57"/>
       <c r="Z17" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA17" s="59">
-        <v>44103.817256944443</v>
+        <v>87</v>
+      </c>
+      <c r="AA17" s="61">
+        <v>1</v>
       </c>
       <c r="AD17" s="56" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="AE17" s="57"/>
       <c r="AF17" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG17" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="B18" s="67"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="L18" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="57"/>
+      <c r="N18" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AG17" s="59">
+      <c r="O18" s="59">
+        <v>44103.817256944443</v>
+      </c>
+      <c r="R18" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="57"/>
+      <c r="T18" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="59">
+        <v>44103.817256944443</v>
+      </c>
+      <c r="X18" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="59">
+        <v>44103.817256944443</v>
+      </c>
+      <c r="AD18" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG18" s="59">
         <v>44110.821782407409</v>
       </c>
     </row>
-    <row r="18" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="56" t="s">
+    <row r="19" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D19" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="61">
-        <v>1</v>
-      </c>
-      <c r="L18" s="48" t="s">
+      <c r="E19" s="61">
+        <v>1</v>
+      </c>
+      <c r="L19" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="49"/>
-      <c r="N18" s="50" t="s">
+      <c r="M19" s="49"/>
+      <c r="N19" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="62">
+      <c r="O19" s="62">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="R18" s="48" t="s">
+      <c r="R19" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="S18" s="49"/>
-      <c r="T18" s="50" t="s">
+      <c r="S19" s="49"/>
+      <c r="T19" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="U18" s="62">
+      <c r="U19" s="62">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="X18" s="48" t="s">
+      <c r="X19" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="50" t="s">
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AA18" s="62">
+      <c r="AA19" s="62">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="AD18" s="48" t="s">
+      <c r="AD19" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="50" t="s">
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AG18" s="62">
+      <c r="AG19" s="62">
         <v>1.4155092592592592E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="56" t="s">
+    <row r="20" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="56" t="s">
         <v>16</v>
-      </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="61">
-        <v>0</v>
-      </c>
-      <c r="L19" s="52"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="63"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="63"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="63"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="53"/>
-      <c r="AF19" s="54"/>
-      <c r="AG19" s="63"/>
-    </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B20" s="56" t="s">
-        <v>32</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="61">
+        <v>0</v>
+      </c>
+      <c r="L20" s="52"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="63"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="63"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="63"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="63"/>
+    </row>
+    <row r="21" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="B21" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E21" s="61">
         <v>20000</v>
       </c>
-      <c r="I20" s="68" t="s">
+      <c r="I21" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="L21" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="45"/>
-      <c r="N20" s="46" t="s">
+      <c r="M21" s="45"/>
+      <c r="N21" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="O20" s="47">
-        <v>1</v>
-      </c>
-      <c r="P20" s="68" t="s">
+      <c r="O21" s="47">
+        <v>1</v>
+      </c>
+      <c r="P21" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="44" t="s">
+      <c r="Q21" s="68"/>
+      <c r="R21" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="S20" s="45"/>
-      <c r="T20" s="46" t="s">
+      <c r="S21" s="45"/>
+      <c r="T21" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="U20" s="47">
-        <v>1</v>
-      </c>
-      <c r="V20" s="68" t="s">
+      <c r="U21" s="47">
+        <v>1</v>
+      </c>
+      <c r="V21" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="W20" s="68"/>
-      <c r="X20" s="44" t="s">
+      <c r="W21" s="68"/>
+      <c r="X21" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="46" t="s">
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AA20" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="68" t="s">
+      <c r="AA21" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="44" t="s">
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="46" t="s">
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AG20" s="47">
+      <c r="AG21" s="47">
         <v>3</v>
       </c>
-      <c r="AH20" s="68" t="s">
+      <c r="AH21" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AJ20" s="44" t="s">
+      <c r="AJ21" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="46" t="s">
+      <c r="AK21" s="45"/>
+      <c r="AL21" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AM20" s="47">
+      <c r="AM21" s="47">
         <v>3</v>
       </c>
-      <c r="AN20" s="68" t="s">
+      <c r="AN21" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AO20" s="68"/>
-    </row>
-    <row r="21" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50" t="s">
+      <c r="AO21" s="68"/>
+    </row>
+    <row r="22" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E22" s="51">
         <v>2</v>
       </c>
-      <c r="L21" s="67" t="s">
+      <c r="L22" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="57" t="s">
+      <c r="M22" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="65" t="s">
+      <c r="N22" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="O21" s="66">
+      <c r="O22" s="66">
         <v>2</v>
       </c>
-      <c r="R21" s="67" t="s">
+      <c r="R22" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="S21" s="57" t="s">
+      <c r="S22" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="65" t="s">
+      <c r="T22" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="U21" s="66">
+      <c r="U22" s="66">
         <v>2</v>
       </c>
-      <c r="X21" s="67" t="s">
+      <c r="X22" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="Y21" s="57" t="s">
+      <c r="Y22" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="65" t="s">
+      <c r="Z22" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="AA21" s="66">
+      <c r="AA22" s="66">
         <v>2</v>
       </c>
-      <c r="AD21" s="75" t="s">
+      <c r="AD22" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AE21" s="76" t="s">
+      <c r="AE22" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="AF21" s="77" t="s">
+      <c r="AF22" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="AG21" s="78">
+      <c r="AG22" s="78">
         <v>3</v>
       </c>
-      <c r="AJ21" s="75" t="s">
+      <c r="AJ22" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AK21" s="76" t="s">
+      <c r="AK22" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="AL21" s="77" t="s">
+      <c r="AL22" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="AM21" s="78">
+      <c r="AM22" s="78">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
-      <c r="L22" s="67" t="s">
+    <row r="23" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="L23" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="M22" s="57"/>
-      <c r="N22" s="65" t="s">
+      <c r="M23" s="57"/>
+      <c r="N23" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="O22" s="66">
-        <v>1</v>
-      </c>
-      <c r="R22" s="67" t="s">
+      <c r="O23" s="66">
+        <v>1</v>
+      </c>
+      <c r="R23" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="S22" s="57"/>
-      <c r="T22" s="65" t="s">
+      <c r="S23" s="57"/>
+      <c r="T23" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="U22" s="66">
-        <v>1</v>
-      </c>
-      <c r="X22" s="67" t="s">
+      <c r="U23" s="66">
+        <v>1</v>
+      </c>
+      <c r="X23" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="65" t="s">
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="AA22" s="66">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="67" t="s">
+      <c r="AA23" s="66">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="65" t="s">
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="AG22" s="66">
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="67" t="s">
+      <c r="AG23" s="66">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="AK22" s="57"/>
-      <c r="AL22" s="65" t="s">
+      <c r="AK23" s="57"/>
+      <c r="AL23" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="AM22" s="66">
+      <c r="AM23" s="66">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B23" s="44" t="s">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="B24" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="L23" s="56" t="s">
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="L24" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="58" t="s">
+      <c r="M24" s="38"/>
+      <c r="N24" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="O23" s="61">
-        <v>1</v>
-      </c>
-      <c r="R23" s="56" t="s">
+      <c r="O24" s="61">
+        <v>1</v>
+      </c>
+      <c r="R24" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="S23" s="38"/>
-      <c r="T23" s="58" t="s">
+      <c r="S24" s="38"/>
+      <c r="T24" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="U23" s="61">
-        <v>1</v>
-      </c>
-      <c r="X23" s="56" t="s">
+      <c r="U24" s="61">
+        <v>1</v>
+      </c>
+      <c r="X24" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="58" t="s">
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="AA23" s="61">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="56" t="s">
+      <c r="AA24" s="61">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="AF23" s="58" t="s">
+      <c r="AF24" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="AG23" s="61">
+      <c r="AG24" s="61">
         <v>2</v>
       </c>
-      <c r="AJ23" s="56" t="s">
+      <c r="AJ24" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="AK23" s="38"/>
-      <c r="AL23" s="58" t="s">
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="AM23" s="61">
+      <c r="AM24" s="61">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57" t="s">
+    <row r="25" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="B25" s="56"/>
+      <c r="C25" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D25" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="61">
-        <v>1</v>
-      </c>
-      <c r="L24" s="56" t="s">
+      <c r="E25" s="61">
+        <v>1</v>
+      </c>
+      <c r="L25" s="56" t="s">
         <v>16</v>
-      </c>
-      <c r="M24" s="57"/>
-      <c r="N24" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="O24" s="61">
-        <v>0</v>
-      </c>
-      <c r="R24" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="S24" s="57"/>
-      <c r="T24" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="U24" s="61">
-        <v>0</v>
-      </c>
-      <c r="X24" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA24" s="61">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG24" s="61">
-        <v>10</v>
-      </c>
-      <c r="AJ24" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK24" s="57"/>
-      <c r="AL24" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM24" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="61">
-        <v>1</v>
-      </c>
-      <c r="L25" s="56" t="s">
-        <v>32</v>
       </c>
       <c r="M25" s="57"/>
       <c r="N25" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O25" s="61">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="R25" s="56" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="S25" s="57"/>
       <c r="T25" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U25" s="61">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="X25" s="56" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Y25" s="57"/>
       <c r="Z25" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA25" s="61">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="56" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AE25" s="57"/>
       <c r="AF25" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG25" s="61">
-        <v>20000</v>
+        <v>10</v>
       </c>
       <c r="AJ25" s="56" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AK25" s="57"/>
       <c r="AL25" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM25" s="61">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:41" x14ac:dyDescent="0.45">
       <c r="B26" s="56"/>
       <c r="C26" s="57"/>
       <c r="D26" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="61">
+        <v>1</v>
+      </c>
+      <c r="L26" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="57"/>
+      <c r="N26" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="O26" s="61">
+        <v>20000</v>
+      </c>
+      <c r="R26" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="57"/>
+      <c r="T26" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="U26" s="61">
+        <v>20000</v>
+      </c>
+      <c r="X26" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA26" s="61">
+        <v>20000</v>
+      </c>
+      <c r="AD26" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG26" s="61">
+        <v>20000</v>
+      </c>
+      <c r="AJ26" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM26" s="61">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E27" s="61">
         <v>2000</v>
       </c>
-      <c r="L26" s="48"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="50" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="51">
+      <c r="O27" s="51">
         <v>2</v>
       </c>
-      <c r="R26" s="48"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="50" t="s">
+      <c r="R27" s="48"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="U26" s="51">
+      <c r="U27" s="51">
         <v>2</v>
       </c>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="50" t="s">
+      <c r="X27" s="48"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="AA26" s="51">
+      <c r="AA27" s="51">
         <v>2</v>
       </c>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="49"/>
-      <c r="AF26" s="50" t="s">
+      <c r="AD27" s="48"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="AG26" s="51">
-        <v>1</v>
-      </c>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="49"/>
-      <c r="AL26" s="50" t="s">
+      <c r="AG27" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="48"/>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="AM26" s="51">
+      <c r="AM27" s="51">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:41" s="91" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="87"/>
-      <c r="C27" s="88" t="s">
+    <row r="28" spans="2:41" s="91" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="87"/>
+      <c r="C28" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="89" t="s">
+      <c r="D28" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="90">
+      <c r="E28" s="90">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:41" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="67"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65" t="s">
+    <row r="29" spans="2:41" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="67"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="66">
-        <v>1</v>
-      </c>
-      <c r="M28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="Y28" s="39"/>
-    </row>
-    <row r="29" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="61">
-        <v>2000</v>
-      </c>
-      <c r="L29" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="S29" s="99"/>
-      <c r="T29" s="99"/>
-      <c r="U29" s="100"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y29" s="99"/>
-      <c r="Z29" s="99"/>
-      <c r="AA29" s="100"/>
-      <c r="AB29" s="70"/>
-      <c r="AC29" s="70"/>
-    </row>
-    <row r="30" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="66">
+        <v>1</v>
+      </c>
+      <c r="M29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="Y29" s="39"/>
+    </row>
+    <row r="30" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="56"/>
       <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="61"/>
-      <c r="L30" s="71" t="s">
+      <c r="D30" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="61">
+        <v>2000</v>
+      </c>
+      <c r="L30" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y30" s="103"/>
+      <c r="Z30" s="103"/>
+      <c r="AA30" s="104"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="70"/>
+    </row>
+    <row r="31" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="61"/>
+      <c r="L31" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="M30" s="72" t="s">
+      <c r="M31" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="N30" s="72" t="s">
+      <c r="N31" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="O30" s="73" t="s">
+      <c r="O31" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="P30" s="74" t="s">
+      <c r="P31" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="71" t="s">
+      <c r="Q31" s="74"/>
+      <c r="R31" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="S30" s="72" t="s">
+      <c r="S31" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="T30" s="72" t="s">
+      <c r="T31" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="U30" s="73" t="s">
+      <c r="U31" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="V30" s="74" t="s">
+      <c r="V31" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="W30" s="74"/>
-      <c r="X30" s="71" t="s">
+      <c r="W31" s="74"/>
+      <c r="X31" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Y30" s="72" t="s">
+      <c r="Y31" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="Z30" s="72" t="s">
+      <c r="Z31" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="AA30" s="73" t="s">
+      <c r="AA31" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AB30" s="74" t="s">
+      <c r="AB31" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="AC30" s="74"/>
-    </row>
-    <row r="31" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B31" s="56"/>
-      <c r="C31" s="57" t="s">
+      <c r="AC31" s="74"/>
+    </row>
+    <row r="32" spans="2:41" x14ac:dyDescent="0.45">
+      <c r="B32" s="56"/>
+      <c r="C32" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D32" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="61">
+      <c r="E32" s="61">
         <v>3</v>
       </c>
-      <c r="L31" s="44" t="s">
+      <c r="L32" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="M31" s="45" t="s">
+      <c r="M32" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="N31" s="46" t="s">
+      <c r="N32" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="47">
-        <v>1</v>
-      </c>
-      <c r="P31" s="68" t="s">
+      <c r="O32" s="47"/>
+      <c r="P32" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="R31" s="44" t="s">
+      <c r="R32" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="S31" s="45" t="s">
+      <c r="S32" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="T31" s="46" t="s">
+      <c r="T32" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="U31" s="47">
-        <v>1</v>
-      </c>
-      <c r="V31" s="68" t="s">
+      <c r="U32" s="47">
+        <v>1</v>
+      </c>
+      <c r="V32" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="X31" s="44" t="s">
+      <c r="X32" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="Y31" s="45" t="s">
+      <c r="Y32" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="Z31" s="46" t="s">
+      <c r="Z32" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="AA31" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="68" t="s">
+      <c r="AA32" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="68" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="56"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58" t="s">
+    <row r="33" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="61">
-        <v>1</v>
-      </c>
-      <c r="L32" s="48"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="50" t="s">
+      <c r="E33" s="61">
+        <v>1</v>
+      </c>
+      <c r="L33" s="48"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="O32" s="51" t="s">
+      <c r="O33" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="P33" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="U33" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="P32" s="69" t="s">
+      <c r="V33" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="50" t="s">
+      <c r="W33" s="69"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="U32" s="51" t="s">
+      <c r="AA33" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="V32" s="69" t="s">
+      <c r="AB33" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="W32" s="69"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA32" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB32" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC32" s="69"/>
-    </row>
-    <row r="33" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="50" t="s">
+      <c r="AC33" s="69"/>
+    </row>
+    <row r="34" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E34" s="51">
         <v>2000</v>
       </c>
-      <c r="M33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="Y33" s="39"/>
-    </row>
-    <row r="34" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="55"/>
       <c r="M34" s="39"/>
       <c r="S34" s="39"/>
       <c r="Y34" s="39"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B35" s="44" t="s">
+    <row r="35" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
+      <c r="M35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="Y35" s="39"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="B36" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B36" s="56"/>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="B37" s="56"/>
+      <c r="C37" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="61"/>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="58"/>
+      <c r="E37" s="61"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="B38" s="56"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="61">
+      <c r="E38" s="61">
         <v>45713</v>
-      </c>
-      <c r="M37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="Y37" s="39"/>
-    </row>
-    <row r="38" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>37</v>
       </c>
       <c r="M38" s="39"/>
       <c r="S38" s="39"/>
       <c r="Y38" s="39"/>
     </row>
-    <row r="39" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="103"/>
+    <row r="39" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>37</v>
+      </c>
       <c r="M39" s="39"/>
       <c r="S39" s="39"/>
       <c r="Y39" s="39"/>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B40" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="47"/>
+    <row r="40" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="107"/>
       <c r="M40" s="39"/>
       <c r="S40" s="39"/>
       <c r="Y40" s="39"/>
     </row>
-    <row r="41" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="51">
-        <v>1</v>
-      </c>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="B41" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="45"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47"/>
       <c r="M41" s="39"/>
       <c r="S41" s="39"/>
       <c r="Y41" s="39"/>
     </row>
-    <row r="42" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="101"/>
-      <c r="C42" s="102"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="103"/>
+    <row r="42" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="51">
+        <v>1</v>
+      </c>
       <c r="M42" s="39"/>
       <c r="S42" s="39"/>
       <c r="Y42" s="39"/>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B43" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="47">
-        <v>1</v>
-      </c>
+    <row r="43" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="105"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="107"/>
       <c r="M43" s="39"/>
       <c r="S43" s="39"/>
       <c r="Y43" s="39"/>
     </row>
-    <row r="44" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="51">
-        <v>30</v>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.45">
+      <c r="B44" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="47">
+        <v>1</v>
       </c>
       <c r="M44" s="39"/>
       <c r="S44" s="39"/>
       <c r="Y44" s="39"/>
     </row>
+    <row r="45" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="49"/>
+      <c r="D45" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="51">
+        <v>30</v>
+      </c>
+      <c r="M45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="Y45" s="39"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="AD5:AG5"/>
     <mergeCell ref="AJ5:AM5"/>
-    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
     <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="X30:AA30"/>
     <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="R30:U30"/>
     <mergeCell ref="L5:O5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="AD5:AG5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TnE/ERD_pizza_data.xlsx
+++ b/TnE/ERD_pizza_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\workspace-spring-tool-suite-4-4.7.0.RELEASE\pizza_a\TnE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-38757\Documents\workspace-spring-tool-suite-4-4.7.1.RELEASE\pizza_a\TnE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B113C9-EE44-48BB-B507-C22068F5A046}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CF9618-7A98-42A8-9E41-156A2EF01456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{1B05C7C1-2AE3-406F-B0E4-99433EE4ADB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1B05C7C1-2AE3-406F-B0E4-99433EE4ADB2}"/>
   </bookViews>
   <sheets>
     <sheet name="old" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,6 +964,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -973,6 +1003,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -985,6 +1018,39 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1009,6 +1075,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1019,6 +1088,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1039,6 +1120,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="21" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1057,27 +1150,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1088,30 +1160,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1128,54 +1176,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1497,27 +1497,27 @@
       <selection activeCell="K5" sqref="K5:O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>42</v>
       </c>
@@ -1530,20 +1530,20 @@
       <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
-    </row>
-    <row r="6" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="96" t="s">
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="42"/>
+    </row>
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
       <c r="K6" s="31" t="s">
         <v>42</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
         <v>38</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -1620,7 +1620,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>21</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>44103.817256944443</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>22</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
         <v>23</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -1723,7 +1723,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
         <v>47</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
         <v>24</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
         <v>16</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
         <v>32</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="19" t="s">
@@ -1854,13 +1854,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
         <v>30</v>
       </c>
@@ -1868,7 +1868,7 @@
       <c r="D22" s="15"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="21"/>
       <c r="C23" s="22" t="s">
         <v>28</v>
@@ -1880,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
       <c r="D24" s="23" t="s">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
       <c r="D25" s="23" t="s">
@@ -1900,13 +1900,13 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
       <c r="D26" s="23"/>
       <c r="E26" s="25"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="21"/>
       <c r="C27" s="22" t="s">
         <v>28</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
       <c r="D28" s="23" t="s">
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23" t="s">
@@ -1938,13 +1938,13 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
       <c r="E30" s="25"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="21"/>
       <c r="C31" s="22" t="s">
         <v>28</v>
@@ -1956,7 +1956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
       <c r="D32" s="23" t="s">
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
       <c r="D33" s="19" t="s">
@@ -1976,13 +1976,13 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
         <v>34</v>
       </c>
@@ -1990,7 +1990,7 @@
       <c r="D35" s="15"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="21"/>
       <c r="C36" s="22" t="s">
         <v>8</v>
@@ -1998,7 +1998,7 @@
       <c r="D36" s="23"/>
       <c r="E36" s="25"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
       <c r="D37" s="23" t="s">
@@ -2008,7 +2008,7 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19" t="s">
@@ -2018,15 +2018,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="96" t="s">
+    <row r="39" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="98"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>26</v>
       </c>
@@ -2034,7 +2034,7 @@
       <c r="D40" s="15"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="17" t="s">
         <v>40</v>
       </c>
@@ -2048,13 +2048,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="96"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="98"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
         <v>41</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="17" t="s">
         <v>39</v>
       </c>
@@ -2097,347 +2097,347 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8105EAB1-ED20-4585-9EB1-8ADC9FD59E63}">
   <dimension ref="B2:AO45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:P10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9" style="39"/>
-    <col min="9" max="9" width="5.58203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.58203125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="9" style="39"/>
-    <col min="12" max="12" width="25" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="68" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.08203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2" style="39" customWidth="1"/>
-    <col min="18" max="18" width="25" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" style="68" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.08203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2" style="39" customWidth="1"/>
-    <col min="24" max="24" width="25" style="39" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" style="68" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.08203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="2" style="39" customWidth="1"/>
-    <col min="30" max="30" width="15.08203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.08203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2" style="39" customWidth="1"/>
-    <col min="36" max="36" width="11" style="39" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.08203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="11.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="49"/>
+    <col min="9" max="9" width="5.625" style="49" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="9" style="49"/>
+    <col min="12" max="12" width="25" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="50" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.125" style="49" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2" style="49" customWidth="1"/>
+    <col min="18" max="18" width="25" style="49" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.375" style="50" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.125" style="49" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2" style="49" customWidth="1"/>
+    <col min="24" max="24" width="25" style="49" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.375" style="50" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.125" style="49" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2" style="49" customWidth="1"/>
+    <col min="30" max="30" width="15.125" style="49" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.125" style="49" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2" style="49" customWidth="1"/>
+    <col min="36" max="36" width="11" style="49" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.875" style="49" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.125" style="49" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:41" s="92" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="L2" s="92" t="s">
+    <row r="2" spans="2:41" s="45" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="L2" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="M2" s="95"/>
-      <c r="R2" s="92" t="s">
+      <c r="M2" s="46"/>
+      <c r="R2" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="95"/>
-      <c r="X2" s="92" t="s">
+      <c r="S2" s="46"/>
+      <c r="X2" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="Y2" s="95"/>
-    </row>
-    <row r="3" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="B3" s="37" t="s">
+      <c r="Y2" s="46"/>
+    </row>
+    <row r="3" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B3" s="47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="40" t="s">
+    <row r="4" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="102" t="s">
+      <c r="L5" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="102" t="s">
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="102" t="s">
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="102" t="s">
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="104"/>
-      <c r="AJ5" s="102" t="s">
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="57"/>
+      <c r="AJ5" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="104"/>
-      <c r="AN5" s="70"/>
-      <c r="AO5" s="70"/>
-    </row>
-    <row r="6" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="105" t="s">
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+    </row>
+    <row r="6" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="107"/>
-      <c r="L6" s="71" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="L6" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="72" t="s">
+      <c r="M6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="72" t="s">
+      <c r="N6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="73" t="s">
+      <c r="O6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="74" t="s">
+      <c r="P6" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="71" t="s">
+      <c r="Q6" s="65"/>
+      <c r="R6" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="72" t="s">
+      <c r="S6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="72" t="s">
+      <c r="T6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="74" t="s">
+      <c r="V6" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="74"/>
-      <c r="X6" s="71" t="s">
+      <c r="W6" s="65"/>
+      <c r="X6" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" s="72" t="s">
+      <c r="Y6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Z6" s="72" t="s">
+      <c r="Z6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="73" t="s">
+      <c r="AA6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="74" t="s">
+      <c r="AB6" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="71" t="s">
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AE6" s="72" t="s">
+      <c r="AE6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="AF6" s="72" t="s">
+      <c r="AF6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AG6" s="73" t="s">
+      <c r="AG6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="AH6" s="74" t="s">
+      <c r="AH6" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="AJ6" s="71" t="s">
+      <c r="AJ6" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AK6" s="72" t="s">
+      <c r="AK6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="AL6" s="72" t="s">
+      <c r="AL6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AM6" s="73" t="s">
+      <c r="AM6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="AN6" s="74" t="s">
+      <c r="AN6" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="AO6" s="74"/>
-    </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="B7" s="44" t="s">
+      <c r="AO6" s="65"/>
+    </row>
+    <row r="7" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B7" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47" t="s">
+      <c r="D7" s="68"/>
+      <c r="E7" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="68" t="s">
+      <c r="I7" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="L7" s="44" t="s">
+      <c r="J7" s="50"/>
+      <c r="L7" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47" t="s">
+      <c r="N7" s="68"/>
+      <c r="O7" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="44" t="s">
+      <c r="R7" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="45" t="s">
+      <c r="S7" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="46"/>
-      <c r="U7" s="47" t="s">
+      <c r="T7" s="68"/>
+      <c r="U7" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="44" t="s">
+      <c r="X7" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="45" t="s">
+      <c r="Y7" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="47" t="s">
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="AJ7" s="68"/>
-    </row>
-    <row r="8" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="48" t="s">
+      <c r="AJ7" s="50"/>
+    </row>
+    <row r="8" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="48" t="s">
+      <c r="L8" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="49"/>
-      <c r="N8" s="50" t="s">
+      <c r="M8" s="71"/>
+      <c r="N8" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="51" t="s">
+      <c r="O8" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="69" t="s">
+      <c r="P8" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="48" t="s">
+      <c r="Q8" s="74"/>
+      <c r="R8" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="49"/>
-      <c r="T8" s="50" t="s">
+      <c r="S8" s="71"/>
+      <c r="T8" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="U8" s="51" t="s">
+      <c r="U8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="V8" s="69" t="s">
+      <c r="V8" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="W8" s="69"/>
-      <c r="X8" s="48" t="s">
+      <c r="W8" s="74"/>
+      <c r="X8" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="50" t="s">
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AA8" s="51" t="s">
+      <c r="AA8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="AB8" s="69" t="s">
+      <c r="AB8" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="AC8" s="69"/>
-      <c r="AO8" s="69"/>
-    </row>
-    <row r="9" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="55"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="55"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="55"/>
-    </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="B10" s="44" t="s">
+      <c r="AC8" s="74"/>
+      <c r="AO8" s="74"/>
+    </row>
+    <row r="9" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="78"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="78"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="78"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="78"/>
+    </row>
+    <row r="10" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B10" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="69">
         <v>1</v>
       </c>
       <c r="L10" s="79"/>
@@ -2450,10 +2450,10 @@
       <c r="O10" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="68" t="s">
+      <c r="P10" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="Q10" s="68"/>
+      <c r="Q10" s="50"/>
       <c r="R10" s="79"/>
       <c r="S10" s="80" t="s">
         <v>8</v>
@@ -2464,213 +2464,213 @@
       <c r="U10" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="V10" s="68" t="s">
+      <c r="V10" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="W10" s="68"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="45" t="s">
+      <c r="W10" s="50"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="Z10" s="46" t="s">
+      <c r="Z10" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AA10" s="47" t="s">
+      <c r="AA10" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="AB10" s="68" t="s">
+      <c r="AB10" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AC10" s="68"/>
-      <c r="AO10" s="68"/>
-    </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="B11" s="56" t="s">
+      <c r="AC10" s="50"/>
+      <c r="AO10" s="50"/>
+    </row>
+    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B11" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="86">
         <v>44103.817256944443</v>
       </c>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="L11" s="56" t="s">
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="L11" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58" t="s">
+      <c r="M11" s="84"/>
+      <c r="N11" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="O11" s="61" t="s">
+      <c r="O11" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="R11" s="56" t="s">
+      <c r="R11" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="S11" s="57"/>
-      <c r="T11" s="58" t="s">
+      <c r="S11" s="84"/>
+      <c r="T11" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="61" t="s">
+      <c r="U11" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="X11" s="56" t="s">
+      <c r="X11" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="58" t="s">
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="AA11" s="61" t="s">
+      <c r="AA11" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="AJ11" s="68"/>
-    </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="B12" s="56" t="s">
+      <c r="AJ11" s="50"/>
+    </row>
+    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B12" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="56"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="58" t="s">
+      <c r="E12" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="83"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="O12" s="61">
+      <c r="O12" s="88">
         <v>45231</v>
       </c>
-      <c r="R12" s="56"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="58" t="s">
+      <c r="R12" s="83"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="U12" s="61">
+      <c r="U12" s="88">
         <v>45713</v>
       </c>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="58" t="s">
+      <c r="X12" s="83"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="AA12" s="61">
+      <c r="AA12" s="88">
         <v>45357</v>
       </c>
     </row>
-    <row r="13" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="L13" s="48" t="s">
+    <row r="13" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="L13" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50" t="s">
+      <c r="M13" s="71"/>
+      <c r="N13" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="51">
+      <c r="O13" s="73">
         <v>2</v>
       </c>
-      <c r="P13" s="69" t="s">
+      <c r="P13" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="R13" s="48" t="s">
+      <c r="R13" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="S13" s="49"/>
-      <c r="T13" s="50" t="s">
+      <c r="S13" s="71"/>
+      <c r="T13" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="U13" s="51">
+      <c r="U13" s="73">
         <v>2</v>
       </c>
-      <c r="V13" s="69" t="s">
+      <c r="V13" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="X13" s="48" t="s">
+      <c r="X13" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="50" t="s">
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="AA13" s="51">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="69" t="s">
+      <c r="AA13" s="73">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="74" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="48" t="s">
+    <row r="14" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50" t="s">
+      <c r="C14" s="71"/>
+      <c r="D14" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="93">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="L14" s="52"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="55"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="55"/>
-    </row>
-    <row r="15" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="63"/>
-      <c r="L15" s="44" t="s">
+      <c r="L14" s="75"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="78"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="78"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="78"/>
+    </row>
+    <row r="15" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="94"/>
+      <c r="L15" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="45" t="s">
+      <c r="M15" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="46" t="s">
+      <c r="N15" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="47">
+      <c r="O15" s="69">
         <v>2</v>
       </c>
-      <c r="P15" s="68" t="s">
+      <c r="P15" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="44" t="s">
+      <c r="Q15" s="50"/>
+      <c r="R15" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="S15" s="45" t="s">
+      <c r="S15" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="T15" s="46" t="s">
+      <c r="T15" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="U15" s="47">
-        <v>1</v>
-      </c>
-      <c r="V15" s="68" t="s">
+      <c r="U15" s="69">
+        <v>1</v>
+      </c>
+      <c r="V15" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="68"/>
+      <c r="W15" s="50"/>
       <c r="X15" s="79" t="s">
         <v>45</v>
       </c>
@@ -2683,10 +2683,10 @@
       <c r="AA15" s="82">
         <v>1</v>
       </c>
-      <c r="AB15" s="68" t="s">
+      <c r="AB15" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="AC15" s="68"/>
+      <c r="AC15" s="50"/>
       <c r="AD15" s="79" t="s">
         <v>45</v>
       </c>
@@ -2699,1038 +2699,1038 @@
       <c r="AG15" s="82">
         <v>3</v>
       </c>
-      <c r="AH15" s="68" t="s">
+      <c r="AH15" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="AO15" s="68"/>
-    </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="B16" s="44" t="s">
+      <c r="AO15" s="50"/>
+    </row>
+    <row r="16" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B16" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65" t="s">
+      <c r="C16" s="95"/>
+      <c r="D16" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="97">
         <v>2</v>
       </c>
-      <c r="L16" s="56" t="s">
+      <c r="L16" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="57"/>
-      <c r="N16" s="58" t="s">
+      <c r="M16" s="84"/>
+      <c r="N16" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="61" t="s">
+      <c r="O16" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="R16" s="56" t="s">
+      <c r="R16" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="57"/>
-      <c r="T16" s="58" t="s">
+      <c r="S16" s="84"/>
+      <c r="T16" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="U16" s="61" t="s">
+      <c r="U16" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="X16" s="56" t="s">
+      <c r="X16" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AA16" s="61" t="s">
+      <c r="AA16" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="AD16" s="56" t="s">
+      <c r="AD16" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="58" t="s">
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AG16" s="61" t="s">
+      <c r="AG16" s="88" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="B17" s="67" t="s">
+    <row r="17" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B17" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="66">
-        <v>1</v>
-      </c>
-      <c r="L17" s="56" t="s">
+      <c r="E17" s="97">
+        <v>1</v>
+      </c>
+      <c r="L17" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="M17" s="57"/>
-      <c r="N17" s="58" t="s">
+      <c r="M17" s="84"/>
+      <c r="N17" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="O17" s="61">
+      <c r="O17" s="88">
         <v>0</v>
       </c>
-      <c r="R17" s="56" t="s">
+      <c r="R17" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="S17" s="57"/>
-      <c r="T17" s="58" t="s">
+      <c r="S17" s="84"/>
+      <c r="T17" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="U17" s="61">
-        <v>1</v>
-      </c>
-      <c r="X17" s="56" t="s">
+      <c r="U17" s="88">
+        <v>1</v>
+      </c>
+      <c r="X17" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="58" t="s">
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AA17" s="61">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="56" t="s">
+      <c r="AA17" s="88">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="58" t="s">
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AG17" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="B18" s="67"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="L18" s="56" t="s">
+      <c r="AG17" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B18" s="98"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
+      <c r="L18" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="57"/>
-      <c r="N18" s="58" t="s">
+      <c r="M18" s="84"/>
+      <c r="N18" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="59">
+      <c r="O18" s="86">
         <v>44103.817256944443</v>
       </c>
-      <c r="R18" s="56" t="s">
+      <c r="R18" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="S18" s="57"/>
-      <c r="T18" s="58" t="s">
+      <c r="S18" s="84"/>
+      <c r="T18" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="59">
+      <c r="U18" s="86">
         <v>44103.817256944443</v>
       </c>
-      <c r="X18" s="56" t="s">
+      <c r="X18" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="58" t="s">
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AA18" s="59">
+      <c r="AA18" s="86">
         <v>44103.817256944443</v>
       </c>
-      <c r="AD18" s="56" t="s">
+      <c r="AD18" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="58" t="s">
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AG18" s="59">
+      <c r="AG18" s="86">
         <v>44110.821782407409</v>
       </c>
     </row>
-    <row r="19" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="56" t="s">
+    <row r="19" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="61">
-        <v>1</v>
-      </c>
-      <c r="L19" s="48" t="s">
+      <c r="E19" s="88">
+        <v>1</v>
+      </c>
+      <c r="L19" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="49"/>
-      <c r="N19" s="50" t="s">
+      <c r="M19" s="71"/>
+      <c r="N19" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="O19" s="62">
+      <c r="O19" s="93">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="R19" s="48" t="s">
+      <c r="R19" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="S19" s="49"/>
-      <c r="T19" s="50" t="s">
+      <c r="S19" s="71"/>
+      <c r="T19" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="U19" s="62">
+      <c r="U19" s="93">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="X19" s="48" t="s">
+      <c r="X19" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="50" t="s">
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="AA19" s="62">
+      <c r="AA19" s="93">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="AD19" s="48" t="s">
+      <c r="AD19" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="50" t="s">
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="AG19" s="62">
+      <c r="AG19" s="93">
         <v>1.4155092592592592E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="56" t="s">
+    <row r="20" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58" t="s">
+      <c r="C20" s="84"/>
+      <c r="D20" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="88">
         <v>0</v>
       </c>
-      <c r="L20" s="52"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="63"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="63"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="63"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="53"/>
-      <c r="AF20" s="54"/>
-      <c r="AG20" s="63"/>
-    </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="B21" s="56" t="s">
+      <c r="L20" s="75"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="94"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="94"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="94"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="94"/>
+    </row>
+    <row r="21" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B21" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58" t="s">
+      <c r="C21" s="84"/>
+      <c r="D21" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="88">
         <v>20000</v>
       </c>
-      <c r="I21" s="68" t="s">
+      <c r="I21" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="44" t="s">
+      <c r="L21" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="45"/>
-      <c r="N21" s="46" t="s">
+      <c r="M21" s="67"/>
+      <c r="N21" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="O21" s="47">
-        <v>1</v>
-      </c>
-      <c r="P21" s="68" t="s">
+      <c r="O21" s="69">
+        <v>1</v>
+      </c>
+      <c r="P21" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="44" t="s">
+      <c r="Q21" s="50"/>
+      <c r="R21" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="S21" s="45"/>
-      <c r="T21" s="46" t="s">
+      <c r="S21" s="67"/>
+      <c r="T21" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="U21" s="47">
-        <v>1</v>
-      </c>
-      <c r="V21" s="68" t="s">
+      <c r="U21" s="69">
+        <v>1</v>
+      </c>
+      <c r="V21" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="W21" s="68"/>
-      <c r="X21" s="44" t="s">
+      <c r="W21" s="50"/>
+      <c r="X21" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="46" t="s">
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AA21" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="68" t="s">
+      <c r="AA21" s="69">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="44" t="s">
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="46" t="s">
+      <c r="AE21" s="67"/>
+      <c r="AF21" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AG21" s="47">
+      <c r="AG21" s="69">
         <v>3</v>
       </c>
-      <c r="AH21" s="68" t="s">
+      <c r="AH21" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AJ21" s="44" t="s">
+      <c r="AJ21" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="46" t="s">
+      <c r="AK21" s="67"/>
+      <c r="AL21" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AM21" s="47">
+      <c r="AM21" s="69">
         <v>3</v>
       </c>
-      <c r="AN21" s="68" t="s">
+      <c r="AN21" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AO21" s="68"/>
-    </row>
-    <row r="22" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50" t="s">
+      <c r="AO21" s="50"/>
+    </row>
+    <row r="22" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="70"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="73">
         <v>2</v>
       </c>
-      <c r="L22" s="67" t="s">
+      <c r="L22" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="57" t="s">
+      <c r="M22" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="65" t="s">
+      <c r="N22" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="O22" s="66">
+      <c r="O22" s="97">
         <v>2</v>
       </c>
-      <c r="R22" s="67" t="s">
+      <c r="R22" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="S22" s="57" t="s">
+      <c r="S22" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="65" t="s">
+      <c r="T22" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="U22" s="66">
+      <c r="U22" s="97">
         <v>2</v>
       </c>
-      <c r="X22" s="67" t="s">
+      <c r="X22" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="Y22" s="57" t="s">
+      <c r="Y22" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="Z22" s="65" t="s">
+      <c r="Z22" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="AA22" s="66">
+      <c r="AA22" s="97">
         <v>2</v>
       </c>
-      <c r="AD22" s="75" t="s">
+      <c r="AD22" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="AE22" s="76" t="s">
+      <c r="AE22" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="AF22" s="77" t="s">
+      <c r="AF22" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="AG22" s="78">
+      <c r="AG22" s="102">
         <v>3</v>
       </c>
-      <c r="AJ22" s="75" t="s">
+      <c r="AJ22" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="AK22" s="76" t="s">
+      <c r="AK22" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="AL22" s="77" t="s">
+      <c r="AL22" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="AM22" s="78">
+      <c r="AM22" s="102">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="L23" s="67" t="s">
+    <row r="23" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="78"/>
+      <c r="L23" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="57"/>
-      <c r="N23" s="65" t="s">
+      <c r="M23" s="84"/>
+      <c r="N23" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="O23" s="66">
-        <v>1</v>
-      </c>
-      <c r="R23" s="67" t="s">
+      <c r="O23" s="97">
+        <v>1</v>
+      </c>
+      <c r="R23" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="S23" s="57"/>
-      <c r="T23" s="65" t="s">
+      <c r="S23" s="84"/>
+      <c r="T23" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="U23" s="66">
-        <v>1</v>
-      </c>
-      <c r="X23" s="67" t="s">
+      <c r="U23" s="97">
+        <v>1</v>
+      </c>
+      <c r="X23" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="65" t="s">
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="AA23" s="66">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="67" t="s">
+      <c r="AA23" s="97">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="65" t="s">
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="AG23" s="66">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="67" t="s">
+      <c r="AG23" s="97">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="AK23" s="57"/>
-      <c r="AL23" s="65" t="s">
+      <c r="AK23" s="84"/>
+      <c r="AL23" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="AM23" s="66">
+      <c r="AM23" s="97">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="B24" s="44" t="s">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B24" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="L24" s="56" t="s">
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="L24" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="M24" s="38"/>
-      <c r="N24" s="58" t="s">
+      <c r="M24" s="48"/>
+      <c r="N24" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="O24" s="61">
-        <v>1</v>
-      </c>
-      <c r="R24" s="56" t="s">
+      <c r="O24" s="88">
+        <v>1</v>
+      </c>
+      <c r="R24" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="S24" s="38"/>
-      <c r="T24" s="58" t="s">
+      <c r="S24" s="48"/>
+      <c r="T24" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="U24" s="61">
-        <v>1</v>
-      </c>
-      <c r="X24" s="56" t="s">
+      <c r="U24" s="88">
+        <v>1</v>
+      </c>
+      <c r="X24" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="58" t="s">
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="AA24" s="61">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="56" t="s">
+      <c r="AA24" s="88">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="AF24" s="58" t="s">
+      <c r="AF24" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="AG24" s="61">
+      <c r="AG24" s="88">
         <v>2</v>
       </c>
-      <c r="AJ24" s="56" t="s">
+      <c r="AJ24" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="AK24" s="38"/>
-      <c r="AL24" s="58" t="s">
+      <c r="AK24" s="48"/>
+      <c r="AL24" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="AM24" s="61">
+      <c r="AM24" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="B25" s="56"/>
-      <c r="C25" s="57" t="s">
+    <row r="25" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B25" s="83"/>
+      <c r="C25" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="61">
-        <v>1</v>
-      </c>
-      <c r="L25" s="56" t="s">
+      <c r="E25" s="88">
+        <v>1</v>
+      </c>
+      <c r="L25" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="M25" s="57"/>
-      <c r="N25" s="58" t="s">
+      <c r="M25" s="84"/>
+      <c r="N25" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="O25" s="61">
+      <c r="O25" s="88">
         <v>0</v>
       </c>
-      <c r="R25" s="56" t="s">
+      <c r="R25" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="S25" s="57"/>
-      <c r="T25" s="58" t="s">
+      <c r="S25" s="84"/>
+      <c r="T25" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="U25" s="61">
+      <c r="U25" s="88">
         <v>0</v>
       </c>
-      <c r="X25" s="56" t="s">
+      <c r="X25" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="58" t="s">
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="AA25" s="61">
+      <c r="AA25" s="88">
         <v>0</v>
       </c>
-      <c r="AD25" s="56" t="s">
+      <c r="AD25" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="58" t="s">
+      <c r="AE25" s="84"/>
+      <c r="AF25" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="AG25" s="61">
+      <c r="AG25" s="88">
         <v>10</v>
       </c>
-      <c r="AJ25" s="56" t="s">
+      <c r="AJ25" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="AK25" s="57"/>
-      <c r="AL25" s="58" t="s">
+      <c r="AK25" s="84"/>
+      <c r="AL25" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="AM25" s="61">
+      <c r="AM25" s="88">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58" t="s">
+    <row r="26" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="61">
-        <v>1</v>
-      </c>
-      <c r="L26" s="56" t="s">
+      <c r="E26" s="88">
+        <v>1</v>
+      </c>
+      <c r="L26" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="57"/>
-      <c r="N26" s="58" t="s">
+      <c r="M26" s="84"/>
+      <c r="N26" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="O26" s="61">
+      <c r="O26" s="88">
         <v>20000</v>
       </c>
-      <c r="R26" s="56" t="s">
+      <c r="R26" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="S26" s="57"/>
-      <c r="T26" s="58" t="s">
+      <c r="S26" s="84"/>
+      <c r="T26" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="U26" s="61">
+      <c r="U26" s="88">
         <v>20000</v>
       </c>
-      <c r="X26" s="56" t="s">
+      <c r="X26" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="58" t="s">
+      <c r="Y26" s="84"/>
+      <c r="Z26" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="AA26" s="61">
+      <c r="AA26" s="88">
         <v>20000</v>
       </c>
-      <c r="AD26" s="56" t="s">
+      <c r="AD26" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="58" t="s">
+      <c r="AE26" s="84"/>
+      <c r="AF26" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="AG26" s="61">
+      <c r="AG26" s="88">
         <v>20000</v>
       </c>
-      <c r="AJ26" s="56" t="s">
+      <c r="AJ26" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="58" t="s">
+      <c r="AK26" s="84"/>
+      <c r="AL26" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="AM26" s="61">
+      <c r="AM26" s="88">
         <v>20000</v>
       </c>
     </row>
-    <row r="27" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58" t="s">
+    <row r="27" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="88">
         <v>2000</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="50" t="s">
+      <c r="L27" s="70"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="O27" s="51">
+      <c r="O27" s="73">
         <v>2</v>
       </c>
-      <c r="R27" s="48"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="50" t="s">
+      <c r="R27" s="70"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="U27" s="51">
+      <c r="U27" s="73">
         <v>2</v>
       </c>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="50" t="s">
+      <c r="X27" s="70"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="AA27" s="51">
+      <c r="AA27" s="73">
         <v>2</v>
       </c>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="50" t="s">
+      <c r="AD27" s="70"/>
+      <c r="AE27" s="71"/>
+      <c r="AF27" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="AG27" s="51">
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="49"/>
-      <c r="AL27" s="50" t="s">
+      <c r="AG27" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="70"/>
+      <c r="AK27" s="71"/>
+      <c r="AL27" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="AM27" s="51">
+      <c r="AM27" s="73">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:41" s="91" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="87"/>
-      <c r="C28" s="88" t="s">
+    <row r="28" spans="2:41" s="107" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="103"/>
+      <c r="C28" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="89" t="s">
+      <c r="D28" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="90">
+      <c r="E28" s="106">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:41" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="67"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65" t="s">
+    <row r="29" spans="2:41" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="98"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="66">
-        <v>1</v>
-      </c>
-      <c r="M29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="Y29" s="39"/>
-    </row>
-    <row r="30" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58" t="s">
+      <c r="E29" s="97">
+        <v>1</v>
+      </c>
+      <c r="M29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="Y29" s="49"/>
+    </row>
+    <row r="30" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30" s="88">
         <v>2000</v>
       </c>
-      <c r="L30" s="102" t="s">
+      <c r="L30" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="102" t="s">
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="104"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="102" t="s">
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="Y30" s="103"/>
-      <c r="Z30" s="103"/>
-      <c r="AA30" s="104"/>
-      <c r="AB30" s="70"/>
-      <c r="AC30" s="70"/>
-    </row>
-    <row r="31" spans="2:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="56"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="61"/>
-      <c r="L31" s="71" t="s">
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+    </row>
+    <row r="31" spans="2:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="88"/>
+      <c r="L31" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="M31" s="72" t="s">
+      <c r="M31" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="N31" s="72" t="s">
+      <c r="N31" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="O31" s="73" t="s">
+      <c r="O31" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="P31" s="74" t="s">
+      <c r="P31" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="71" t="s">
+      <c r="Q31" s="65"/>
+      <c r="R31" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="S31" s="72" t="s">
+      <c r="S31" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="T31" s="72" t="s">
+      <c r="T31" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="U31" s="73" t="s">
+      <c r="U31" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="V31" s="74" t="s">
+      <c r="V31" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="W31" s="74"/>
-      <c r="X31" s="71" t="s">
+      <c r="W31" s="65"/>
+      <c r="X31" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y31" s="72" t="s">
+      <c r="Y31" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Z31" s="72" t="s">
+      <c r="Z31" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AA31" s="73" t="s">
+      <c r="AA31" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="AB31" s="74" t="s">
+      <c r="AB31" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="AC31" s="74"/>
-    </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.45">
-      <c r="B32" s="56"/>
-      <c r="C32" s="57" t="s">
+      <c r="AC31" s="65"/>
+    </row>
+    <row r="32" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B32" s="83"/>
+      <c r="C32" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="88">
         <v>3</v>
       </c>
-      <c r="L32" s="44" t="s">
+      <c r="L32" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="M32" s="45" t="s">
+      <c r="M32" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="N32" s="46" t="s">
+      <c r="N32" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="47"/>
-      <c r="P32" s="68" t="s">
+      <c r="O32" s="69"/>
+      <c r="P32" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="R32" s="44" t="s">
+      <c r="R32" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="S32" s="45" t="s">
+      <c r="S32" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="T32" s="46" t="s">
+      <c r="T32" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="U32" s="47">
-        <v>1</v>
-      </c>
-      <c r="V32" s="68" t="s">
+      <c r="U32" s="69">
+        <v>1</v>
+      </c>
+      <c r="V32" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="X32" s="44" t="s">
+      <c r="X32" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="Y32" s="45" t="s">
+      <c r="Y32" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="Z32" s="46" t="s">
+      <c r="Z32" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="AA32" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="68" t="s">
+      <c r="AA32" s="69">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="50" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="56"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58" t="s">
+    <row r="33" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="61">
-        <v>1</v>
-      </c>
-      <c r="L33" s="48"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="50" t="s">
+      <c r="E33" s="88">
+        <v>1</v>
+      </c>
+      <c r="L33" s="70"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="O33" s="51" t="s">
+      <c r="O33" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="P33" s="69" t="s">
+      <c r="P33" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="50" t="s">
+      <c r="Q33" s="74"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="U33" s="51" t="s">
+      <c r="U33" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="V33" s="69" t="s">
+      <c r="V33" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="W33" s="69"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="50" t="s">
+      <c r="W33" s="74"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="AA33" s="51" t="s">
+      <c r="AA33" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="AB33" s="69" t="s">
+      <c r="AB33" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="AC33" s="69"/>
-    </row>
-    <row r="34" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50" t="s">
+      <c r="AC33" s="74"/>
+    </row>
+    <row r="34" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="70"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="73">
         <v>2000</v>
       </c>
-      <c r="M34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="Y34" s="39"/>
-    </row>
-    <row r="35" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="52"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
-      <c r="M35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="Y35" s="39"/>
-    </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B36" s="44" t="s">
+      <c r="M34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="Y34" s="49"/>
+    </row>
+    <row r="35" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="75"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="78"/>
+      <c r="M35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="Y35" s="49"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B36" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47"/>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B37" s="56"/>
-      <c r="C37" s="57" t="s">
+      <c r="C36" s="67"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="69"/>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B37" s="83"/>
+      <c r="C37" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="61"/>
-    </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B38" s="56"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58" t="s">
+      <c r="D37" s="85"/>
+      <c r="E37" s="88"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="61">
+      <c r="E38" s="88">
         <v>45713</v>
       </c>
-      <c r="M38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="Y38" s="39"/>
-    </row>
-    <row r="39" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="50" t="s">
+      <c r="M38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="Y38" s="49"/>
+    </row>
+    <row r="39" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="M39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="Y39" s="39"/>
-    </row>
-    <row r="40" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="105" t="s">
+      <c r="M39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="Y39" s="49"/>
+    </row>
+    <row r="40" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="107"/>
-      <c r="M40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="Y40" s="39"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B41" s="44" t="s">
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="61"/>
+      <c r="M40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="Y40" s="49"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B41" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
-      <c r="M41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="Y41" s="39"/>
-    </row>
-    <row r="42" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="48" t="s">
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="69"/>
+      <c r="M41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="Y41" s="49"/>
+    </row>
+    <row r="42" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="51">
-        <v>1</v>
-      </c>
-      <c r="M42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="Y42" s="39"/>
-    </row>
-    <row r="43" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="105"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="107"/>
-      <c r="M43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="Y43" s="39"/>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.45">
-      <c r="B44" s="44" t="s">
+      <c r="E42" s="73">
+        <v>1</v>
+      </c>
+      <c r="M42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="Y42" s="49"/>
+    </row>
+    <row r="43" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="59"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="61"/>
+      <c r="M43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="Y43" s="49"/>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B44" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="47">
-        <v>1</v>
-      </c>
-      <c r="M44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="Y44" s="39"/>
-    </row>
-    <row r="45" spans="2:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="48" t="s">
+      <c r="E44" s="69">
+        <v>1</v>
+      </c>
+      <c r="M44" s="49"/>
+      <c r="S44" s="49"/>
+      <c r="Y44" s="49"/>
+    </row>
+    <row r="45" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="50" t="s">
+      <c r="C45" s="71"/>
+      <c r="D45" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="73">
         <v>30</v>
       </c>
-      <c r="M45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="Y45" s="39"/>
+      <c r="M45" s="49"/>
+      <c r="S45" s="49"/>
+      <c r="Y45" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="11">
